--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taller\Desktop\Pulperia-Ortiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -694,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -791,7 +791,7 @@
         <v>1919636.2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -824,7 +824,7 @@
         <v>1164535</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -857,7 +857,7 @@
         <v>124565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -890,7 +890,7 @@
         <v>-559230.19999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -923,7 +923,7 @@
         <v>-683795.2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -949,7 +949,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -989,8 +989,16 @@
         <f>M8*0.1</f>
         <v>28177</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="8">
+        <f>M8*0.28</f>
+        <v>78895.600000000006</v>
+      </c>
+      <c r="Q8" s="8">
+        <f>P8-O8</f>
+        <v>50718.600000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1030,8 +1038,16 @@
         <f t="shared" ref="O9:O12" si="0">M9*0.1</f>
         <v>34216.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="8">
+        <f t="shared" ref="P9:P10" si="1">M9*0.28</f>
+        <v>95806.200000000012</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" ref="Q9:Q10" si="2">P9-O9</f>
+        <v>61589.700000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1055,15 +1071,23 @@
         <v>540600</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" ref="N10:N12" si="1">M10/7</f>
+        <f t="shared" ref="N10:N12" si="3">M10/7</f>
         <v>77228.571428571435</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" si="0"/>
         <v>54060</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="8">
+        <f t="shared" si="1"/>
+        <v>151368</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="2"/>
+        <v>97308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="8">
@@ -1095,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="8">
@@ -1124,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1150,7 +1174,7 @@
         <v>116453.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1189,7 @@
       </c>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1179,7 +1203,7 @@
         <v>51125</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>

--- a/Contabilidad.xlsx
+++ b/Contabilidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taller\Desktop\Pulperia-Ortiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Respaldo PC\Escritorio\Pulperia-Ortiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
-  <si>
-    <t>Compras</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Nombre</t>
   </si>
@@ -53,21 +51,12 @@
     <t>Cadena</t>
   </si>
   <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
     <t>Ferreteria</t>
   </si>
   <si>
     <t>Patente</t>
   </si>
   <si>
-    <t>Zeledon</t>
-  </si>
-  <si>
-    <t>Rey</t>
-  </si>
-  <si>
     <t>Compras Sin Fac</t>
   </si>
   <si>
@@ -86,33 +75,18 @@
     <t>Pan Zarcero</t>
   </si>
   <si>
-    <t>Diana</t>
-  </si>
-  <si>
     <t>Confites Alberto</t>
   </si>
   <si>
-    <t>Pan Juan</t>
-  </si>
-  <si>
-    <t>Dos Pinos</t>
-  </si>
-  <si>
     <t>Bimbo</t>
   </si>
   <si>
     <t>Verduras ARJU</t>
   </si>
   <si>
-    <t>pan pagnota</t>
-  </si>
-  <si>
     <t>Verduras Domin</t>
   </si>
   <si>
-    <t>Confites Tiga</t>
-  </si>
-  <si>
     <t>Kayu</t>
   </si>
   <si>
@@ -147,16 +121,55 @@
   </si>
   <si>
     <t>Semana5</t>
+  </si>
+  <si>
+    <t>Compras Gravadas</t>
+  </si>
+  <si>
+    <t>Compras Exentas</t>
+  </si>
+  <si>
+    <t>exento</t>
+  </si>
+  <si>
+    <t>gravado</t>
+  </si>
+  <si>
+    <t>Lineas</t>
+  </si>
+  <si>
+    <t>Altas</t>
+  </si>
+  <si>
+    <t>Comision David</t>
+  </si>
+  <si>
+    <t>Costo linea</t>
+  </si>
+  <si>
+    <t>Comision Allan</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+  <si>
+    <t>% Ganancia</t>
+  </si>
+  <si>
+    <t>actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_-&quot;₡&quot;* #,##0_-;\-&quot;₡&quot;* #,##0_-;_-&quot;₡&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;₡&quot;* #,##0.00_);_(&quot;₡&quot;* \(#,##0.00\);_(&quot;₡&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;₡&quot;* #,##0_);_(&quot;₡&quot;* \(#,##0\);_(&quot;₡&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;₡&quot;* #,##0.00_-;\-&quot;₡&quot;* #,##0.00_-;_-&quot;₡&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -219,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -352,14 +365,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -371,11 +415,7 @@
     <xf numFmtId="165" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,18 +445,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
@@ -694,666 +761,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="9"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="4"/>
-    <col min="8" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="11.42578125" style="5"/>
-    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8"/>
+    <col min="3" max="3" width="11.42578125" style="33"/>
+    <col min="4" max="11" width="11.42578125" style="28"/>
+    <col min="12" max="12" width="12.85546875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="12.7109375" style="23" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" style="22" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="3"/>
+    <col min="24" max="24" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="11.42578125" style="4"/>
+    <col min="26" max="26" width="14.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="19"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>SUM(M3:M101)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <f>SUM(B3:B101)</f>
+        <v>1343297</v>
+      </c>
+      <c r="AE2" s="7">
+        <f>AC2+AD2</f>
+        <v>1343297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8">
+        <v>9640</v>
+      </c>
+      <c r="U3" s="22">
+        <v>43067</v>
+      </c>
+      <c r="V3" s="10">
+        <v>50860</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>2500</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="8">
+        <f>SUM(V3:V101)</f>
+        <v>1164535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8">
+        <v>72815</v>
+      </c>
+      <c r="U4" s="22">
+        <v>43068</v>
+      </c>
+      <c r="V4" s="10">
+        <v>26630</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>30700</v>
+      </c>
+      <c r="AB4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="AC4" s="8">
+        <f>SUM(AA3:AA101)</f>
+        <v>124565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8">
+        <v>17044</v>
+      </c>
+      <c r="U5" s="22">
+        <v>43069</v>
+      </c>
+      <c r="V5" s="10">
+        <v>30000</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="8">
+        <f>AC3-AC2</f>
+        <v>1164535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>39740</v>
+      </c>
+      <c r="U6" s="22">
+        <v>43070</v>
+      </c>
+      <c r="V6" s="10">
+        <v>58650</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>2365</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="8">
+        <f>AC5-AC4</f>
+        <v>1039970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8">
+        <v>29860</v>
+      </c>
+      <c r="U7" s="22">
+        <v>43071</v>
+      </c>
+      <c r="V7" s="10">
+        <v>72630</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="9">
-        <f>SUM(D3:D100)</f>
-        <v>1723765.2</v>
-      </c>
-      <c r="N2" s="8">
-        <f>SUM(B3:B100)</f>
-        <v>195871</v>
-      </c>
-      <c r="O2" s="8">
-        <f>M2+N2</f>
-        <v>1919636.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9">
-        <v>9640</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6">
-        <v>421920</v>
-      </c>
-      <c r="E3" s="13">
-        <v>43067</v>
-      </c>
-      <c r="F3" s="11">
-        <v>50860</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2500</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="9">
-        <f>SUM(F3:F100)</f>
-        <v>1164535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" s="8">
+        <v>12630</v>
+      </c>
+      <c r="U8" s="22">
+        <v>43072</v>
+      </c>
+      <c r="V8" s="10">
+        <v>43000</v>
+      </c>
+      <c r="Z8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9">
-        <v>72815</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6">
-        <v>168090</v>
-      </c>
-      <c r="E4" s="13">
-        <v>43068</v>
-      </c>
-      <c r="F4" s="11">
-        <v>26630</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7">
-        <v>30700</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="9">
-        <f>SUM(K3:K100)</f>
-        <v>124565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="AA8" s="6">
+        <v>21500</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="8">
+        <f>SUM(V3:V8)</f>
+        <v>281770</v>
+      </c>
+      <c r="AD8" s="7">
+        <f>AC8/6</f>
+        <v>46961.666666666664</v>
+      </c>
+      <c r="AE8" s="7">
+        <f>AC8*0.1</f>
+        <v>28177</v>
+      </c>
+      <c r="AF8" s="7">
+        <f>AC8*0.28</f>
+        <v>78895.600000000006</v>
+      </c>
+      <c r="AG8" s="7">
+        <f>AF8-AE8</f>
+        <v>50718.600000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9">
-        <v>17044</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>114740</v>
-      </c>
-      <c r="E5" s="13">
-        <v>43069</v>
-      </c>
-      <c r="F5" s="11">
-        <v>30000</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="10">
-        <v>5000</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="9">
-        <f>M3-M2</f>
-        <v>-559230.19999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9">
-        <v>39740</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6">
-        <v>39300</v>
-      </c>
-      <c r="E6" s="13">
-        <v>43070</v>
-      </c>
-      <c r="F6" s="11">
-        <v>58650</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="B9" s="8">
+        <v>14142</v>
+      </c>
+      <c r="U9" s="22">
+        <v>43073</v>
+      </c>
+      <c r="V9" s="10">
+        <v>50740</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>12500</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="8">
+        <f>SUM(V9:V15)</f>
+        <v>342165</v>
+      </c>
+      <c r="AD9" s="7">
+        <f>AC9/7</f>
+        <v>48880.714285714283</v>
+      </c>
+      <c r="AE9" s="7">
+        <f t="shared" ref="AE9:AE12" si="0">AC9*0.1</f>
+        <v>34216.5</v>
+      </c>
+      <c r="AF9" s="7">
+        <f t="shared" ref="AF9:AF10" si="1">AC9*0.28</f>
+        <v>95806.200000000012</v>
+      </c>
+      <c r="AG9" s="7">
+        <f t="shared" ref="AG9:AG10" si="2">AF9-AE9</f>
+        <v>61589.700000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U10" s="22">
+        <v>43074</v>
+      </c>
+      <c r="V10" s="10">
+        <v>40175</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="7">
-        <v>2365</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="9">
-        <f>M5-M4</f>
-        <v>-683795.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9">
-        <v>29860</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6">
-        <v>15355</v>
-      </c>
-      <c r="E7" s="13">
-        <v>43071</v>
-      </c>
-      <c r="F7" s="11">
-        <v>72630</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="10">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9">
-        <v>12630</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6">
-        <v>79385</v>
-      </c>
-      <c r="E8" s="13">
-        <v>43072</v>
-      </c>
-      <c r="F8" s="11">
-        <v>43000</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7">
-        <v>21500</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="9">
-        <f>SUM(F3:F8)</f>
-        <v>281770</v>
-      </c>
-      <c r="N8" s="8">
-        <f>M8/6</f>
-        <v>46961.666666666664</v>
-      </c>
-      <c r="O8" s="8">
-        <f>M8*0.1</f>
-        <v>28177</v>
-      </c>
-      <c r="P8" s="8">
-        <f>M8*0.28</f>
-        <v>78895.600000000006</v>
-      </c>
-      <c r="Q8" s="8">
-        <f>P8-O8</f>
-        <v>50718.600000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9">
-        <v>14142</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>7852.2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>43073</v>
-      </c>
-      <c r="F9" s="11">
-        <v>50740</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="10">
-        <v>12500</v>
-      </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="9">
-        <f>SUM(F9:F15)</f>
-        <v>342165</v>
-      </c>
-      <c r="N9" s="8">
-        <f>M9/7</f>
-        <v>48880.714285714283</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" ref="O9:O12" si="0">M9*0.1</f>
-        <v>34216.5</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" ref="P9:P10" si="1">M9*0.28</f>
-        <v>95806.200000000012</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" ref="Q9:Q10" si="2">P9-O9</f>
-        <v>61589.700000000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6">
-        <v>29925</v>
-      </c>
-      <c r="E10" s="13">
-        <v>43074</v>
-      </c>
-      <c r="F10" s="11">
-        <v>40175</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="9">
-        <f>SUM(F16:F22)</f>
+      <c r="AC10" s="8">
+        <f>SUM(V16:V23)</f>
         <v>540600</v>
       </c>
-      <c r="N10" s="8">
-        <f t="shared" ref="N10:N12" si="3">M10/7</f>
+      <c r="AD10" s="7">
+        <f t="shared" ref="AD10:AD12" si="3">AC10/7</f>
         <v>77228.571428571435</v>
       </c>
-      <c r="O10" s="8">
+      <c r="AE10" s="7">
         <f t="shared" si="0"/>
         <v>54060</v>
       </c>
-      <c r="P10" s="8">
+      <c r="AF10" s="7">
         <f t="shared" si="1"/>
         <v>151368</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="AG10" s="7">
         <f t="shared" si="2"/>
         <v>97308</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>616710</v>
-      </c>
-      <c r="E11" s="13">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U11" s="22">
         <v>43075</v>
       </c>
-      <c r="F11" s="11">
+      <c r="V11" s="10">
         <v>39550</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="9">
-        <f>SUM(F23:F29)</f>
+      <c r="Z11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="8">
+        <f>SUM(V24:V30)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="8">
+      <c r="AD11" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O11" s="8">
+      <c r="AE11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6">
-        <v>49450</v>
-      </c>
-      <c r="E12" s="13">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="22">
         <v>43076</v>
       </c>
-      <c r="F12" s="11">
+      <c r="V12" s="10">
         <v>30500</v>
       </c>
-      <c r="L12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="9">
-        <f>SUM(F30:F36)</f>
+      <c r="AB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" s="8">
+        <f>SUM(V31:V37)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="8">
+      <c r="AD12" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O12" s="8">
+      <c r="AE12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6">
-        <v>55030</v>
-      </c>
-      <c r="E13" s="13">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>61900</v>
+      </c>
+      <c r="B13" s="31">
+        <v>3645</v>
+      </c>
+      <c r="C13" s="34">
+        <v>419.4</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="U13" s="22">
         <v>43077</v>
       </c>
-      <c r="F13" s="11">
+      <c r="V13" s="10">
         <v>66875</v>
       </c>
-      <c r="M13" s="9">
-        <f>SUM(M8:M12)</f>
+      <c r="AC13" s="8">
+        <f>SUM(AC8:AC12)</f>
         <v>1164535</v>
       </c>
-      <c r="N13" s="8">
-        <f>AVERAGE(N8:N12)</f>
+      <c r="AD13" s="7">
+        <f>AVERAGE(AD8:AD12)</f>
         <v>34614.190476190473</v>
       </c>
-      <c r="O13" s="8">
-        <f>SUM(O8:O12)</f>
+      <c r="AE13" s="7">
+        <f>SUM(AE8:AE12)</f>
         <v>116453.5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6">
-        <v>10856</v>
-      </c>
-      <c r="E14" s="13">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>48942</v>
+      </c>
+      <c r="B14" s="31">
+        <v>7908</v>
+      </c>
+      <c r="C14" s="34">
+        <v>909.41</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="U14" s="22">
         <v>43078</v>
       </c>
-      <c r="F14" s="11">
+      <c r="V14" s="10">
         <v>63200</v>
       </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="6">
-        <v>16400</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>1962</v>
+      </c>
+      <c r="B15" s="31">
+        <v>27723</v>
+      </c>
+      <c r="C15" s="34">
+        <v>3189.16</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="U15" s="22">
         <v>43079</v>
       </c>
-      <c r="F15" s="11">
+      <c r="V15" s="10">
         <v>51125</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6">
-        <v>44102</v>
-      </c>
-      <c r="E16" s="13">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>9311</v>
+      </c>
+      <c r="B16" s="31">
+        <v>39099</v>
+      </c>
+      <c r="C16" s="34">
+        <v>4497.63</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="U16" s="22">
         <v>43080</v>
       </c>
-      <c r="F16" s="11">
+      <c r="V16" s="10">
         <v>42700</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6">
-        <v>54650</v>
-      </c>
-      <c r="E17" s="13">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>19262</v>
+      </c>
+      <c r="B17" s="31">
+        <v>18168</v>
+      </c>
+      <c r="C17" s="34">
+        <v>2090</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="U17" s="22">
         <v>43081</v>
       </c>
-      <c r="F17" s="11">
+      <c r="V17" s="10">
         <v>77220</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="13">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>43482</v>
+      </c>
+      <c r="B18" s="31">
+        <v>18738</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2155.36</v>
+      </c>
+      <c r="U18" s="22">
         <v>43082</v>
       </c>
-      <c r="F18" s="11">
+      <c r="V18" s="10">
         <v>64500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="13">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>2820</v>
+      </c>
+      <c r="B19" s="31">
+        <v>23185</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2667.2</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1352</v>
+      </c>
+      <c r="F19" s="28">
+        <f>E19*1.13</f>
+        <v>1527.7599999999998</v>
+      </c>
+      <c r="G19" s="28">
+        <f>F19*1.35</f>
+        <v>2062.4759999999997</v>
+      </c>
+      <c r="H19" s="28">
+        <f>G19-(G19/1.13)</f>
+        <v>237.27599999999984</v>
+      </c>
+      <c r="I19" s="28">
+        <f>H19-F19</f>
+        <v>-1290.4839999999999</v>
+      </c>
+      <c r="J19" s="28">
+        <f>I19/E19*100</f>
+        <v>-95.449999999999989</v>
+      </c>
+      <c r="U19" s="22">
         <v>43083</v>
       </c>
-      <c r="F19" s="11">
+      <c r="V19" s="10">
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="13">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>6800</v>
+      </c>
+      <c r="B20" s="31">
+        <v>36545</v>
+      </c>
+      <c r="C20" s="34">
+        <v>4204.17</v>
+      </c>
+      <c r="U20" s="22">
         <v>43084</v>
       </c>
-      <c r="F20" s="11">
+      <c r="V20" s="10">
         <v>67000</v>
       </c>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="13">
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>28821</v>
+      </c>
+      <c r="B21" s="31">
+        <v>16844</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1937.52</v>
+      </c>
+      <c r="AA21" s="9"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31">
+        <v>39880</v>
+      </c>
+      <c r="C22" s="34">
+        <v>4587</v>
+      </c>
+      <c r="U22" s="22">
         <v>43085</v>
       </c>
-      <c r="F21" s="11">
+      <c r="V22" s="10">
         <v>144180</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="13">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>53266</v>
+      </c>
+      <c r="B23" s="31">
+        <v>6539</v>
+      </c>
+      <c r="C23" s="34">
+        <v>751.75</v>
+      </c>
+      <c r="U23" s="22">
         <v>43086</v>
       </c>
-      <c r="F22" s="11">
+      <c r="V23" s="10">
         <v>105000</v>
       </c>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="13">
+      <c r="AA23" s="9"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>16085</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="34"/>
+      <c r="U24" s="22">
         <v>43087</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="13">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>43612</v>
+      </c>
+      <c r="B25" s="31">
+        <v>11148</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1282.1400000000001</v>
+      </c>
+      <c r="U25" s="22">
         <v>43088</v>
       </c>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="13">
+      <c r="AA25" s="9"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>15089</v>
+      </c>
+      <c r="B26" s="31">
+        <v>15596</v>
+      </c>
+      <c r="C26" s="34">
+        <v>1794</v>
+      </c>
+      <c r="U26" s="22">
         <v>43089</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="13">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31">
+        <v>340</v>
+      </c>
+      <c r="C27" s="34">
+        <v>38.76</v>
+      </c>
+      <c r="U27" s="22">
         <v>43090</v>
       </c>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="13">
+      <c r="AA27" s="9"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="34"/>
+      <c r="U28" s="22">
         <v>43091</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="13">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="U29" s="22">
         <v>43092</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="13">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="U30" s="22">
         <v>43093</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="13">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="34"/>
+      <c r="U31" s="22">
         <v>43094</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="13">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="34"/>
+      <c r="U32" s="22">
         <v>43095</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="13">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="34"/>
+      <c r="U33" s="22">
         <v>43096</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="13">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="34"/>
+      <c r="U34" s="22">
         <v>43097</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="13">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="34"/>
+      <c r="U35" s="22">
         <v>43098</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="13">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="34"/>
+      <c r="U36" s="22">
         <v>43099</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="13">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <f>SUM(A13:A36)</f>
+        <v>351352</v>
+      </c>
+      <c r="B37" s="30">
+        <f>SUM(B13:B36)</f>
+        <v>265358</v>
+      </c>
+      <c r="C37" s="35">
+        <f>SUM(C13:C36)</f>
+        <v>30523.5</v>
+      </c>
+      <c r="U37" s="22">
         <v>43100</v>
       </c>
     </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <f>SUM(A37:B37)</f>
+        <v>616710</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:K1"/>
+  <mergeCells count="6">
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>A2*0.3</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="30">
+        <f>B2*1750</f>
+        <v>5250</v>
+      </c>
+      <c r="D2" s="30">
+        <f>A2*250</f>
+        <v>2500</v>
+      </c>
+      <c r="E2" s="30">
+        <f>B2*200</f>
+        <v>600</v>
+      </c>
+      <c r="F2" s="30">
+        <f>C2-(D2+E2)</f>
+        <v>2150</v>
+      </c>
+      <c r="G2" s="36">
+        <f>F2/C2*100</f>
+        <v>40.952380952380949</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>A3*0.3</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="30">
+        <f>B3*1750</f>
+        <v>5250</v>
+      </c>
+      <c r="D3" s="30">
+        <f>A3*250</f>
+        <v>2500</v>
+      </c>
+      <c r="E3" s="30">
+        <f>B3*400</f>
+        <v>1200</v>
+      </c>
+      <c r="F3" s="30">
+        <f>C3-(D3+E3)</f>
+        <v>1550</v>
+      </c>
+      <c r="G3" s="36">
+        <f>F3/C3*100</f>
+        <v>29.523809523809526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>